--- a/Tables/Sources/gameplay/Level/ChapterConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/ChapterConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21220" windowHeight="13380"/>
+    <workbookView windowWidth="25470" windowHeight="14350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>关卡数量</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>ClanType</t>
-  </si>
-  <si>
-    <t>ChapterCount</t>
   </si>
   <si>
     <t>这是丐帮的挑战</t>
@@ -253,11 +247,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -289,6 +283,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -296,7 +297,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,75 +418,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,51 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -453,13 +447,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,157 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +771,39 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,15 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -816,21 +834,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,17 +855,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -872,9 +864,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,10 +878,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,97 +890,103 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,34 +995,28 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1436,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1455,7 +1449,7 @@
     <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="18" customFormat="1" ht="13.5" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1468,59 +1462,47 @@
       <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+    </row>
+    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1528,136 +1510,120 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="20">
-        <v>8</v>
-      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="20">
-        <v>12</v>
-      </c>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="20">
-        <v>5</v>
-      </c>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20">
-        <v>20</v>
-      </c>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="20">
-        <v>10</v>
-      </c>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="20">
-        <v>10</v>
-      </c>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="20">
-        <v>10</v>
-      </c>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13"/>
@@ -1758,56 +1724,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -1816,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1833,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1850,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1867,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1884,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1897,29 +1863,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1927,29 +1893,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1961,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -1983,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2005,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2027,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/gameplay/Level/ChapterConfig.xlsx
+++ b/Tables/Sources/gameplay/Level/ChapterConfig.xlsx
@@ -92,7 +92,7 @@
     <t>少林</t>
   </si>
   <si>
-    <t>Chapter_1_24</t>
+    <t>Chapter_1_18</t>
   </si>
   <si>
     <r>
@@ -130,7 +130,7 @@
     <t>武当</t>
   </si>
   <si>
-    <t>Chapter_2_24</t>
+    <t>Chapter_2_18</t>
   </si>
   <si>
     <r>
@@ -168,7 +168,7 @@
     <t>峨眉</t>
   </si>
   <si>
-    <t>Chapter_3_24</t>
+    <t>Chapter_3_18</t>
   </si>
   <si>
     <r>
@@ -206,7 +206,7 @@
     <t>华山</t>
   </si>
   <si>
-    <t>Chapter_4_24</t>
+    <t>Chapter_4_18</t>
   </si>
   <si>
     <t>Huashan</t>
@@ -215,7 +215,7 @@
     <t>五毒</t>
   </si>
   <si>
-    <t>Chapter_5_24</t>
+    <t>Chapter_5_18</t>
   </si>
   <si>
     <t>Wudu</t>
@@ -224,7 +224,7 @@
     <t>魔教</t>
   </si>
   <si>
-    <t>Chapter_6_24</t>
+    <t>Chapter_6_18</t>
   </si>
   <si>
     <t>Mojiao</t>
@@ -233,7 +233,7 @@
     <t>逍遥</t>
   </si>
   <si>
-    <t>Chapter_7_24</t>
+    <t>Chapter_7_18</t>
   </si>
   <si>
     <t>Xiaoyao</t>
@@ -363,13 +363,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,10 +398,86 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,61 +489,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,61 +507,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,8 +527,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,13 +563,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,13 +683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,19 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,127 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,6 +887,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,6 +930,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -939,39 +950,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,6 +971,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1007,10 +994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,137 +1006,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,10 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1566,12 +1550,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1699,13 +1683,13 @@
       <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1713,13 +1697,13 @@
       <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1727,13 +1711,13 @@
       <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1741,63 +1725,15 @@
       <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A3:C15">
@@ -1861,7 +1797,7 @@
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1886,7 +1822,7 @@
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="8"/>
@@ -1903,7 +1839,7 @@
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="8"/>
@@ -1920,7 +1856,7 @@
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="8"/>
@@ -1937,7 +1873,7 @@
       <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="8"/>
@@ -1954,7 +1890,7 @@
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="10"/>
@@ -2003,7 +1939,7 @@
       <c r="D13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2031,7 +1967,7 @@
       <c r="D14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="4"/>
@@ -2053,7 +1989,7 @@
       <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="4"/>
@@ -2075,7 +2011,7 @@
       <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="4"/>
@@ -2097,7 +2033,7 @@
       <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="4"/>
